--- a/covidfigures.xlsx
+++ b/covidfigures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oviyat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oviyat/Desktop/CX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D5841-75B9-E44B-96D3-6645034B9F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1061DC1-5CB5-3B4A-8997-C78B7ECEB190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37260" yWindow="-1300" windowWidth="16580" windowHeight="14740" xr2:uid="{B6BB231E-38AD-6F4B-9AC1-7A8DDC1671B8}"/>
+    <workbookView xWindow="-25680" yWindow="40" windowWidth="16580" windowHeight="14740" xr2:uid="{B6BB231E-38AD-6F4B-9AC1-7A8DDC1671B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>CO_2_1.png</t>
   </si>
   <si>
-    <t>CO_11_8.png </t>
-  </si>
-  <si>
     <t>CO_15_19.png</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Pn_28_0.png</t>
   </si>
   <si>
-    <t>Pn_105_8.png </t>
-  </si>
-  <si>
     <t>Pn_573_15.png</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>No_549_94.png</t>
+  </si>
+  <si>
+    <t>CO_11_8.png</t>
+  </si>
+  <si>
+    <t>Pn_105_8.png</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -454,77 +454,77 @@
     </row>
     <row r="2" spans="1:1" ht="19">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="19">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="19">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="19">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="19">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
